--- a/bh3/507128602786634630_2021-03-28_14-37-59.xlsx
+++ b/bh3/507128602786634630_2021-03-28_14-37-59.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:21:29</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44357.68158564815</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-02 13:22:19</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44349.55716435185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-12 02:26:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44328.10163194445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-12 02:12:11</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44328.09179398148</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -821,10 +829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-05-03 14:25:37</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44319.60112268518</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -888,10 +894,8 @@
           <t>4334942681</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-02 00:52:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44318.0361574074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -955,10 +959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-01 23:29:15</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44317.97864583333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1041,10 +1043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-25 17:58:04</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44311.74865740741</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1120,10 +1120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-25 00:43:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44311.02990740741</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1195,10 +1193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-25 00:42:56</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44311.02981481481</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1266,10 +1262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-24 18:45:05</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44310.78130787037</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1345,10 +1339,8 @@
           <t>4459736186</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-24 12:09:10</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44310.50636574074</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1416,10 +1408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-23 23:18:18</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44309.97104166666</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1488,10 +1478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:28</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44308.45796296297</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1560,10 +1548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-21 17:30:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44307.72936342593</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -1631,10 +1617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-20 23:33:30</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44306.98159722222</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1698,10 +1682,8 @@
           <t>4438998417</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-19 22:54:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44305.95434027778</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1784,10 +1766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:19:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44302.76372685185</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1865,10 +1845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-15 18:38:27</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44301.77670138889</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -1940,10 +1918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-13 21:07:59</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44299.88054398148</v>
       </c>
       <c r="I21" t="n">
         <v>10</v>
@@ -2007,10 +1983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-12 12:00:32</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44298.50037037037</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2086,10 +2060,8 @@
           <t>4398548739</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-11 16:09:13</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44297.67306712963</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2149,10 +2121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-11 12:07:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44297.5049537037</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -2224,10 +2194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-11 10:17:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44297.4290625</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2305,10 +2273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-11 01:28:37</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44297.06153935185</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
@@ -2384,10 +2350,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-10 08:18:20</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44296.34606481482</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2451,10 +2415,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-10 08:17:02</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44296.34516203704</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2518,10 +2480,8 @@
           <t>4336413184</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-10 08:12:37</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44296.34209490741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2585,10 +2545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-09 14:07:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44295.58828703704</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2664,10 +2622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:55:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44294.78880787037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2727,10 +2683,8 @@
           <t>4379262400</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:29:50</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44294.52071759259</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2794,10 +2748,8 @@
           <t>4379262400</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:43:29</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44293.82186342592</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2866,10 +2818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-06 21:00:27</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44292.8753125</v>
       </c>
       <c r="I34" t="n">
         <v>17</v>
@@ -2941,10 +2891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-06 09:41:54</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44292.40409722222</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3020,10 +2968,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-06 01:59:14</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44292.08280092593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3087,10 +3033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-05 22:48:21</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44291.95024305556</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3152,10 +3096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-05 18:17:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44291.76180555556</v>
       </c>
       <c r="I38" t="n">
         <v>8</v>
@@ -3227,10 +3169,8 @@
           <t>4369222455</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-05 16:05:53</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44291.67075231481</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3298,10 +3238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-05 14:35:11</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44291.60776620371</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3365,10 +3303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-05 10:22:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44291.4324537037</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3444,10 +3380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-04 23:00:02</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44290.95835648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3518,10 +3452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-04 22:44:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44290.94765046296</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3589,10 +3521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:18:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44290.84636574074</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3658,10 +3588,8 @@
           <t>4331624646</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-04 18:32:26</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44290.77252314815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3739,10 +3667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-04 15:15:38</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44290.63585648148</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -3818,10 +3744,8 @@
           <t>4362117984</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-04 10:13:59</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44290.42637731481</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3893,10 +3817,8 @@
           <t>4330067973</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-04 10:11:32</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44290.42467592593</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3968,10 +3890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-04 09:56:35</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44290.41429398148</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4039,10 +3959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-04 01:20:02</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44290.0555787037</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4106,10 +4024,8 @@
           <t>4336413184</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-04 00:31:22</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44290.02178240741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4169,10 +4085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-03 19:46:41</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44289.82408564815</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4240,10 +4154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-03 18:05:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44289.75377314815</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4307,10 +4219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-03 16:43:47</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44289.69707175926</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4370,10 +4280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-03 12:45:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44289.53149305555</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4441,10 +4349,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-03 11:33:45</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44289.48177083334</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4520,10 +4426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-03 11:05:08</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44289.46189814815</v>
       </c>
       <c r="I57" t="n">
         <v>5</v>
@@ -4595,10 +4499,8 @@
           <t>4356733250</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-03 10:28:38</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44289.43655092592</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4666,10 +4568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-03 01:56:59</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44289.08123842593</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
@@ -4729,10 +4629,8 @@
           <t>4354341600</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-02 20:57:31</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44288.87327546296</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4796,10 +4694,8 @@
           <t>4354335005</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-02 20:56:29</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44288.87255787037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4863,10 +4759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-02 18:36:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44288.77535879629</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4966,10 +4860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-01 23:27:22</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44287.97733796296</v>
       </c>
       <c r="I63" t="n">
         <v>5</v>
@@ -5038,10 +4930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:06:39</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44287.75461805556</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5105,10 +4995,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-01 14:50:54</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44287.61868055556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5172,10 +5060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-01 08:08:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44287.33947916667</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5247,10 +5133,8 @@
           <t>4336413184</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-01 06:56:58</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44287.28956018519</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5318,10 +5202,8 @@
           <t>4336412787</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-01 06:53:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44287.28694444444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5389,10 +5271,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:37:01</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44287.06737268518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5460,10 +5340,8 @@
           <t>4329328096</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:34:30</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44287.065625</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5531,10 +5409,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:28:32</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44287.06148148148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5598,10 +5474,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:27:54</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44287.06104166667</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5665,10 +5539,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:27:29</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44287.06075231481</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5732,10 +5604,8 @@
           <t>4329328096</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:26:40</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44287.06018518518</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5799,10 +5669,8 @@
           <t>4336413184</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:23:50</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44287.0582175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5866,10 +5734,8 @@
           <t>4336412787</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:23:12</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44287.05777777778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5933,10 +5799,8 @@
           <t>4330992218</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-01 00:19:32</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44287.01356481481</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6000,10 +5864,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-01 00:17:52</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44287.0124074074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6067,10 +5929,8 @@
           <t>4329478524</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:16:49</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44286.88667824074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6146,10 +6006,8 @@
           <t>4343886729</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:35:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44286.85778935185</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6213,10 +6071,8 @@
           <t>4343290829</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-31 18:45:10</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44286.78136574074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6276,10 +6132,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-31 16:33:44</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44286.69009259259</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6355,10 +6209,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:36:56</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44286.56731481481</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6434,10 +6286,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-31 11:46:11</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44286.49040509259</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6513,10 +6363,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-31 10:24:12</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44286.43347222222</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6588,10 +6436,8 @@
           <t>4329575968</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-31 08:58:34</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44286.37400462963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6667,10 +6513,8 @@
           <t>4329575968</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-31 08:49:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44286.36778935185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6734,10 +6578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-31 06:31:08</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44286.27162037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6813,10 +6655,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-31 04:57:10</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44286.20636574074</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6892,10 +6732,8 @@
           <t>4336412787</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-31 04:45:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44286.19850694444</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6963,10 +6801,8 @@
           <t>4336412787</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-31 04:41:30</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44286.19548611111</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7042,10 +6878,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-31 01:14:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44286.05170138889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7121,10 +6955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-31 01:13:26</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44286.05099537037</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7200,10 +7032,8 @@
           <t>4340338749</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-31 00:08:24</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44286.00583333334</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7275,10 +7105,8 @@
           <t>4340078711</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-30 23:18:53</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44285.97144675926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7351,10 +7179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-30 23:13:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44285.96787037037</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7422,10 +7248,8 @@
           <t>4339902101</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-30 22:49:16</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44285.95087962963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7497,10 +7321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-30 21:27:24</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44285.89402777778</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7576,10 +7398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-30 21:04:29</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44285.87811342593</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7651,10 +7471,8 @@
           <t>4338983312</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-30 19:57:46</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44285.8317824074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7722,10 +7540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-30 19:49:45</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44285.82621527778</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7801,10 +7617,8 @@
           <t>4338827888</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-30 19:22:35</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44285.80734953703</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7880,10 +7694,8 @@
           <t>4337559276</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-30 18:53:49</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44285.78737268518</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7959,10 +7771,8 @@
           <t>4337403554</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-30 18:53:25</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44285.78709490741</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8038,10 +7848,8 @@
           <t>4338273151</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-30 17:25:27</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44285.72600694445</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8105,10 +7913,8 @@
           <t>4338137706</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-30 16:48:10</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44285.70011574074</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8184,10 +7990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-30 16:45:02</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44285.69793981482</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8255,10 +8059,8 @@
           <t>4337559276</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:45:09</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44285.57302083333</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8334,10 +8136,8 @@
           <t>4333997893</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:27:19</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44285.56063657408</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8401,10 +8201,8 @@
           <t>4333997893</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:24:43</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44285.55883101852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8476,10 +8274,8 @@
           <t>4337403554</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:04:36</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44285.54486111111</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -8547,10 +8343,8 @@
           <t>4330067973</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-30 12:57:12</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44285.53972222222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8626,10 +8420,8 @@
           <t>4337324961</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-30 12:49:07</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44285.5341087963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8705,10 +8497,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:54:37</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44285.49626157407</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8784,10 +8574,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:53:20</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44285.49537037037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8863,10 +8651,8 @@
           <t>4336764206</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-30 10:20:26</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44285.43085648148</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8934,10 +8720,8 @@
           <t>4336755739</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-30 10:14:26</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44285.42668981481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9005,10 +8789,8 @@
           <t>4336719805</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-30 10:05:25</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44285.42042824074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9076,10 +8858,8 @@
           <t>4332693748</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-30 09:57:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44285.41487268519</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9147,10 +8927,8 @@
           <t>4330541524</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-30 09:40:35</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44285.40318287037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9226,10 +9004,8 @@
           <t>4336517258</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:47:28</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44285.3662962963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9297,10 +9073,8 @@
           <t>4336108805</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:42:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44285.36277777778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9368,10 +9142,8 @@
           <t>4328748929</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:40:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44285.36138888889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9439,10 +9211,8 @@
           <t>4336493870</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:38:27</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44285.36003472222</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9510,10 +9280,8 @@
           <t>4336413184</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:00:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44285.33390046296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9586,10 +9354,8 @@
           <t>4336412787</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:00:16</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44285.33351851852</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9657,10 +9423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-30 06:09:16</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44285.25643518518</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9736,10 +9500,8 @@
           <t>4336177044</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-30 03:11:14</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44285.13280092592</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9815,10 +9577,8 @@
           <t>4336108805</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:14:26</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44285.09335648148</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9882,10 +9642,8 @@
           <t>4336112891</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:13:19</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44285.09258101852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9949,10 +9707,8 @@
           <t>4330541524</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:12:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44285.09196759259</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10016,10 +9772,8 @@
           <t>4330541524</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:09:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44285.09012731481</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10083,10 +9837,8 @@
           <t>4335953531</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:09:31</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44285.08994212963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10159,10 +9911,8 @@
           <t>4336101758</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:06:49</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44285.08806712963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10226,10 +9976,8 @@
           <t>4335953531</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:56:13</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44285.03903935185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10297,10 +10045,8 @@
           <t>4330992218</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:30:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44285.02127314815</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10364,10 +10110,8 @@
           <t>4335841369</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:21:49</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44285.01515046296</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10431,10 +10175,8 @@
           <t>4335822372</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:18:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44285.01255787037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10502,10 +10244,8 @@
           <t>4335816295</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:16:30</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44285.01145833333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10573,10 +10313,8 @@
           <t>4335718031</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-29 23:54:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44284.99645833333</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10648,10 +10386,8 @@
           <t>4335523039</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-29 23:18:33</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44284.97121527778</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10723,10 +10459,8 @@
           <t>4335506707</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-29 23:15:13</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44284.96890046296</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10798,10 +10532,8 @@
           <t>4331912479</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:44:42</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44284.94770833333</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10873,10 +10605,8 @@
           <t>4335267346</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:33:36</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44284.94</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10947,10 +10677,8 @@
           <t>4335171982</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:17:01</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44284.9284837963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11026,10 +10754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:55:14</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44284.91335648148</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11105,10 +10831,8 @@
           <t>4330541524</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:36:38</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44284.90043981482</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11184,10 +10908,8 @@
           <t>4334942681</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:35:59</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44284.89998842592</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11251,10 +10973,8 @@
           <t>4333539707</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-29 20:47:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44284.86634259259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11322,10 +11042,8 @@
           <t>4334690071</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-29 20:45:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44284.86486111111</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11397,10 +11115,8 @@
           <t>4334621644</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-29 20:31:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44284.85517361111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11476,10 +11192,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:59:54</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44284.83326388889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11543,10 +11257,8 @@
           <t>4334451150</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:56:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44284.830625</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11622,10 +11334,8 @@
           <t>4334415200</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:47:37</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44284.8247337963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11689,10 +11399,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:06:13</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44284.7959837963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11768,10 +11476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:53:06</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44284.786875</v>
       </c>
       <c r="I156" t="n">
         <v>4</v>
@@ -11839,10 +11545,8 @@
           <t>4333997893</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:23:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44284.76664351852</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11906,10 +11610,8 @@
           <t>4333950084</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:12:51</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44284.75892361111</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11977,10 +11679,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:09:42</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44284.75673611111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12052,10 +11752,8 @@
           <t>4333820957</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-29 17:45:19</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44284.73980324074</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12123,10 +11821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-29 17:31:55</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44284.73049768519</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12190,10 +11886,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:58:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44284.70758101852</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12261,10 +11955,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:56:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44284.70594907407</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12328,10 +12020,8 @@
           <t>4333539707</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:53:37</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44284.70390046296</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12407,10 +12097,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:52:30</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44284.703125</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12486,10 +12174,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:52:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44284.70282407408</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12565,10 +12251,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:47:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44284.69969907407</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12644,10 +12328,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:43:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44284.6968287037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12711,10 +12393,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:40:29</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44284.69478009259</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12778,10 +12458,8 @@
           <t>4333567973</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:38:17</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44284.69325231481</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12857,10 +12535,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:35:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44284.69105324074</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12924,10 +12600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:30:42</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44284.68798611111</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12999,10 +12673,8 @@
           <t>4333539707</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:30:37</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44284.68792824074</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13070,10 +12742,8 @@
           <t>4333542667</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:30:11</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44284.68762731482</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13141,10 +12811,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:07:52</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44284.67212962963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13220,10 +12888,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:40:20</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44284.65300925926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13299,10 +12965,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:39:02</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44284.65210648148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13370,10 +13034,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:35:14</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44284.64946759259</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13449,10 +13111,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:34:05</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44284.64866898148</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13528,10 +13188,8 @@
           <t>4331624955</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:33:51</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44284.64850694445</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13607,10 +13265,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:33:30</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44284.64826388889</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13686,10 +13342,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:32:42</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44284.64770833333</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13765,10 +13419,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:29:24</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44284.64541666667</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13836,10 +13488,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:20:20</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44284.63912037037</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13915,10 +13565,8 @@
           <t>4333278406</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:03:15</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44284.62725694444</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13986,10 +13634,8 @@
           <t>4333273789</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:02:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44284.62690972222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14053,10 +13699,8 @@
           <t>4331624955</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:00:15</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44284.62517361111</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14120,10 +13764,8 @@
           <t>4333270225</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:59:03</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44284.62434027778</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14187,10 +13829,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:43:22</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44284.61344907407</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14254,10 +13894,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:40:47</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44284.61165509259</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14321,10 +13959,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:06:47</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44284.58804398148</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14396,10 +14032,8 @@
           <t>4330067973</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:05:04</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44284.58685185185</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14467,10 +14101,8 @@
           <t>4331912479</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:55:26</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44284.58016203704</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14538,10 +14170,8 @@
           <t>4331912479</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:52:05</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44284.57783564815</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14613,10 +14243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:46:41</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44284.57408564815</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14688,10 +14316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:44:24</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44284.5725</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14755,10 +14381,8 @@
           <t>4331624646</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:35:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44284.56627314815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14834,10 +14458,8 @@
           <t>4332413273</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:34:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44284.56583333333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14913,10 +14535,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:34:26</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44284.5655787037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14992,10 +14612,8 @@
           <t>4329019984</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:12:43</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44284.55049768519</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15067,10 +14685,8 @@
           <t>4332856089</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:50:59</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44284.5354050926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15138,10 +14754,8 @@
           <t>4332793647</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:38:41</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44284.52686342593</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15205,10 +14819,8 @@
           <t>4332788439</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:37:02</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44284.52571759259</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15272,10 +14884,8 @@
           <t>4332784922</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:36:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44284.52564814815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15351,10 +14961,8 @@
           <t>4332693748</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:25:09</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44284.51746527778</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15422,10 +15030,8 @@
           <t>4332693748</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:18:09</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44284.51260416667</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15503,10 +15109,8 @@
           <t>4332693748</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:16:19</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44284.51133101852</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15574,10 +15178,8 @@
           <t>4332511083</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:21:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44284.47313657407</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15649,10 +15251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:09:22</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44284.46483796297</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15728,10 +15328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:57:32</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44284.45662037037</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15795,10 +15393,8 @@
           <t>4332413273</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:50:22</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44284.45164351852</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15866,10 +15462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:13:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44284.42637731481</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15933,10 +15527,8 @@
           <t>4331624646</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:39:01</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44284.4020949074</v>
       </c>
       <c r="I213" t="n">
         <v>4</v>
@@ -16000,10 +15592,8 @@
           <t>4331624955</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:38:04</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44284.40143518519</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -16067,10 +15657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:24:16</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44284.39185185185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16134,10 +15722,8 @@
           <t>4332162995</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:15:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44284.38592592593</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16201,10 +15787,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:07:47</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44284.38040509259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16272,10 +15856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:58:17</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44284.37380787037</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16347,10 +15929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:32:20</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44284.35578703704</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16418,10 +15998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:07:17</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44284.3383912037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16494,10 +16072,8 @@
           <t>4332007071</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:02:08</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44284.33481481481</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16565,10 +16141,8 @@
           <t>4331929977</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:49:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44284.32614583334</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16644,10 +16218,8 @@
           <t>4331929977</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:20:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44284.30590277778</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16723,10 +16295,8 @@
           <t>4331912479</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:03:39</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44284.29420138889</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16794,10 +16364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-29 06:02:13</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44284.25153935186</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16873,10 +16441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-29 05:55:42</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44284.24701388889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16942,10 +16508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-29 03:44:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44284.15564814815</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17021,10 +16585,8 @@
           <t>4331714268</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-29 02:28:24</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44284.10305555556</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17093,10 +16655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-29 02:20:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44284.09784722222</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17156,10 +16716,8 @@
           <t>4331686627</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-29 02:05:05</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44284.08686342592</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17227,10 +16785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:48:32</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44284.07537037037</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17306,10 +16862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:46:45</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44284.07413194444</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -17385,10 +16939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:45:09</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44284.07302083333</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17464,10 +17016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:43:43</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44284.07202546296</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17543,10 +17093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:42:50</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44284.07141203704</v>
       </c>
       <c r="I235" t="n">
         <v>23</v>
@@ -17622,10 +17170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:41:12</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44284.07027777778</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17701,10 +17247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:40:36</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44284.06986111111</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17780,10 +17324,8 @@
           <t>4331634160</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:40:13</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44284.06959490741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17851,10 +17393,8 @@
           <t>4331624955</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:36:44</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44284.06717592593</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17930,10 +17470,8 @@
           <t>4331624646</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:36:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44284.06684027778</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -18009,10 +17547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:28:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44284.06140046296</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18076,10 +17612,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:10:37</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44284.04903935185</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18155,10 +17689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:09:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44284.04822916666</v>
       </c>
       <c r="I243" t="n">
         <v>28</v>
@@ -18222,10 +17754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:05:04</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44284.04518518518</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18297,10 +17827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:04:11</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44284.04457175926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18376,10 +17904,8 @@
           <t>4331548298</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:04:08</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44284.04453703704</v>
       </c>
       <c r="I246" t="n">
         <v>4</v>
@@ -18439,10 +17965,8 @@
           <t>4331524773</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:58:05</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44284.04033564815</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18507,10 +18031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:50:40</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44284.03518518519</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18578,10 +18100,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:47:08</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44284.03273148148</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18657,10 +18177,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:45:58</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44284.03192129629</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18736,10 +18254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:21:40</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44284.0150462963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18815,10 +18331,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:18:34</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44284.01289351852</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18886,10 +18400,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:18:19</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44284.0127199074</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18965,10 +18477,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:11:08</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44284.00773148148</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19036,10 +18546,8 @@
           <t>4328852601</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:07:19</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44284.00508101852</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19103,10 +18611,8 @@
           <t>4328723653</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:06:43</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44284.00466435185</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19170,10 +18676,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:06:02</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44284.00418981481</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19249,10 +18753,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:03:41</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44284.00255787037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19320,10 +18822,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:00:51</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44284.00059027778</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19399,10 +18899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:54:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44283.99613425926</v>
       </c>
       <c r="I260" t="n">
         <v>139</v>
@@ -19470,10 +18968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:54:00</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44283.99583333333</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19545,10 +19041,8 @@
           <t>4331272293</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:53:44</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44283.99564814815</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19620,10 +19114,8 @@
           <t>4331114642</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:24:25</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44283.97528935185</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19691,10 +19183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:20:51</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44283.9728125</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19754,10 +19244,8 @@
           <t>4329516211</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:09:12</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44283.96472222222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19829,10 +19317,8 @@
           <t>4329250106</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:09:09</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44283.9646875</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19904,10 +19390,8 @@
           <t>4330992218</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:02:55</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44283.9603587963</v>
       </c>
       <c r="I267" t="n">
         <v>10</v>
@@ -19979,10 +19463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:53:10</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44283.95358796296</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20054,10 +19536,8 @@
           <t>4330336139</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:50:23</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44283.95165509259</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20133,10 +19613,8 @@
           <t>4330910730</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:47:46</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44283.94983796297</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20204,10 +19682,8 @@
           <t>4328996577</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:45:52</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44283.94851851852</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20279,10 +19755,8 @@
           <t>4328789733</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:42:00</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44283.94583333333</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20342,10 +19816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:39:21</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44283.94399305555</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20413,10 +19885,8 @@
           <t>4328751285</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:37:39</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44283.9428125</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20476,10 +19946,8 @@
           <t>4330829026</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:33:55</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44283.94021990741</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20551,10 +20019,8 @@
           <t>4330336139</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:32:28</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44283.93921296296</v>
       </c>
       <c r="I276" t="n">
         <v>8</v>
@@ -20630,10 +20096,8 @@
           <t>4328996577</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:32:11</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44283.9390162037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20710,10 +20174,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:29:30</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44283.93715277778</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20781,10 +20243,8 @@
           <t>4330555375</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:28:07</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44283.93619212963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20856,10 +20316,8 @@
           <t>4330792858</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:27:23</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44283.93568287037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20931,10 +20389,8 @@
           <t>4330797350</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:27:22</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44283.9356712963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20998,10 +20454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:24:54</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44283.93395833333</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21065,10 +20519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:24:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44283.93391203704</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21132,10 +20584,8 @@
           <t>4330701827</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:09:55</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44283.92355324074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21199,10 +20649,8 @@
           <t>4330692451</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:07:47</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44283.92207175926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21266,10 +20714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:00:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44283.91734953703</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21349,10 +20795,8 @@
           <t>4330621717</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:55:02</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44283.91321759259</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21416,10 +20860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:51:01</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44283.91042824074</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21495,10 +20937,8 @@
           <t>4330576470</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:46:04</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44283.90699074074</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21558,10 +20998,8 @@
           <t>4330560376</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:42:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44283.90438657408</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21637,10 +21075,8 @@
           <t>4330555375</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:40:18</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44283.90298611111</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -21708,10 +21144,8 @@
           <t>4330546228</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:39:47</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44283.90262731481</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21779,10 +21213,8 @@
           <t>4330541524</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:38:02</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44283.90141203703</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21850,10 +21282,8 @@
           <t>4328719289</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:26:58</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44283.89372685185</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21930,10 +21360,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:25:35</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44283.8927662037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22001,10 +21429,8 @@
           <t>4330336139</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:19:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44283.88861111111</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22080,10 +21506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:09:31</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44283.8816087963</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22155,10 +21579,8 @@
           <t>4330336139</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:57:28</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44283.87324074074</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22218,10 +21640,8 @@
           <t>4330328986</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:56:57</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44283.87288194444</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22293,10 +21713,8 @@
           <t>4330336139</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:56:37</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44283.87265046296</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22372,10 +21790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:54:39</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44283.87128472222</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -22447,10 +21863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:49:56</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44283.86800925926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22526,10 +21940,8 @@
           <t>4330263050</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:41:53</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44283.86241898148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22601,10 +22013,8 @@
           <t>4330245132</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:40:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44283.86159722223</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22680,10 +22090,8 @@
           <t>4330239865</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:38:42</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44283.86020833333</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22743,10 +22151,8 @@
           <t>4330245132</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:36:39</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44283.85878472222</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22814,10 +22220,8 @@
           <t>4330215807</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:30:33</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44283.85454861111</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22893,10 +22297,8 @@
           <t>4330215181</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:30:07</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44283.85424768519</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22960,10 +22362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:17:33</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44283.84552083333</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23036,10 +22436,8 @@
           <t>4330138464</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:15:05</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44283.84380787037</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23115,10 +22513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:14:35</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44283.84346064815</v>
       </c>
       <c r="I311" t="n">
         <v>26</v>
@@ -23182,10 +22578,8 @@
           <t>4330124341</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:12:22</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44283.8419212963</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23253,10 +22647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:08:27</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44283.83920138889</v>
       </c>
       <c r="I313" t="n">
         <v>132</v>
@@ -23332,10 +22724,8 @@
           <t>4330095256</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:03:36</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44283.83583333333</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23407,10 +22797,8 @@
           <t>4329380829</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:59:30</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44283.83298611111</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23486,10 +22874,8 @@
           <t>4330067973</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:59:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44283.83270833334</v>
       </c>
       <c r="I316" t="n">
         <v>24</v>
@@ -23565,10 +22951,8 @@
           <t>4328785232</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:54:35</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44283.82957175926</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23636,10 +23020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:52:59</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44283.82846064815</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23715,10 +23097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:50:42</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44283.826875</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23790,10 +23170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:48:59</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44283.82568287037</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23869,10 +23247,8 @@
           <t>4328774237</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:48:40</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44283.82546296297</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23936,10 +23312,8 @@
           <t>4330012413</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:47:44</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44283.82481481481</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24003,10 +23377,8 @@
           <t>4330015182</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:47:12</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44283.82444444444</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24074,10 +23446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:44:15</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44283.82239583333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24141,10 +23511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:44:01</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44283.82223379629</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24216,10 +23584,8 @@
           <t>4329989240</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:43:18</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44283.82173611111</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24279,10 +23645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:41:49</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44283.82070601852</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24350,10 +23714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:36:02</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44283.81668981481</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24417,10 +23779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:36:02</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44283.81668981481</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24484,10 +23844,8 @@
           <t>4329948569</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:33:13</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44283.81473379629</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24555,10 +23913,8 @@
           <t>4329943894</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:32:58</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44283.81456018519</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24631,10 +23987,8 @@
           <t>4329947788</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:32:41</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44283.81436342592</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24698,10 +24052,8 @@
           <t>4329946552</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:31:54</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44283.81381944445</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24769,10 +24121,8 @@
           <t>4329929970</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:30:25</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44283.81278935185</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -24848,10 +24198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:30:12</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44283.81263888889</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24915,10 +24263,8 @@
           <t>4329332366</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:25:09</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44283.80913194444</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24982,10 +24328,8 @@
           <t>4328789733</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:22:37</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44283.80737268519</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25061,10 +24405,8 @@
           <t>4329900095</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:21:18</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44283.80645833333</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25140,10 +24482,8 @@
           <t>4329575968</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:11:45</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44283.79982638889</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25219,10 +24559,8 @@
           <t>4329439331</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:10:22</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44283.79886574074</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25298,10 +24636,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:08:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44283.79754629629</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25365,10 +24701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:07:47</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44283.79707175926</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25436,10 +24770,8 @@
           <t>4329439331</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:06:32</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44283.79620370371</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25515,10 +24847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:01:37</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44283.79278935185</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25588,10 +24918,8 @@
           <t>4329776631</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:55:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44283.78883101852</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25660,10 +24988,8 @@
           <t>4329770828</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:54:34</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44283.78789351852</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25731,10 +25057,8 @@
           <t>4329766698</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:53:59</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44283.78748842593</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25803,10 +25127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:51:55</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44283.78605324074</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25874,10 +25196,8 @@
           <t>4328751285</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:49:07</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44283.7841087963</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25946,10 +25266,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:48:03</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44283.78336805556</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26018,10 +25336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:47:09</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44283.78274305556</v>
       </c>
       <c r="I351" t="n">
         <v>7</v>
@@ -26091,10 +25407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:46:21</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44283.7821875</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26164,10 +25478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:44:49</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44283.78112268518</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26231,10 +25543,8 @@
           <t>4329718263</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:35</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44283.78026620371</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26310,10 +25620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:34:23</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44283.77387731482</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26381,10 +25689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:34:22</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44283.77386574074</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26460,10 +25766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:33:59</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44283.77359953704</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26535,10 +25839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:29:58</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44283.77081018518</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26614,10 +25916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:22:15</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44283.76545138889</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26686,10 +25986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:21:51</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44283.76517361111</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26761,10 +26059,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:21:00</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44283.76458333333</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26840,10 +26136,8 @@
           <t>4329612633</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:20:33</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44283.76427083334</v>
       </c>
       <c r="I362" t="n">
         <v>11</v>
@@ -26907,10 +26201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:13:42</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44283.75951388889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26971,10 +26263,8 @@
           <t>4329575968</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:12:18</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44283.75854166667</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27047,10 +26337,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:10:13</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44283.75709490741</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27126,10 +26414,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:10:02</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44283.75696759259</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27205,10 +26491,8 @@
           <t>4329555932</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:08:59</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44283.75623842593</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27281,10 +26565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:08:41</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44283.75603009259</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27348,10 +26630,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:08:04</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44283.75560185185</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27427,10 +26707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:07:42</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44283.75534722222</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27498,10 +26776,8 @@
           <t>4329425922</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:05:21</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44283.75371527778</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27574,10 +26850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:04:59</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44283.75346064815</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27645,10 +26919,8 @@
           <t>4329425922</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:03:58</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44283.75275462963</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27721,10 +26993,8 @@
           <t>4329535423</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:03:28</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44283.75240740741</v>
       </c>
       <c r="I374" t="n">
         <v>5</v>
@@ -27792,10 +27062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:01:14</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44283.75085648148</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27871,10 +27139,8 @@
           <t>4329516211</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:00:11</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44283.75012731482</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27942,10 +27208,8 @@
           <t>4329515020</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:59:22</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44283.74956018518</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28021,10 +27285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:57:15</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44283.74809027778</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28088,10 +27350,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:55:48</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44283.74708333334</v>
       </c>
       <c r="I379" t="n">
         <v>3</v>
@@ -28167,10 +27427,8 @@
           <t>4329492168</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:54:57</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44283.74649305556</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28242,10 +27500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:53:56</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44283.74578703703</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28321,10 +27577,8 @@
           <t>4329486256</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:53:28</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44283.74546296296</v>
       </c>
       <c r="I382" t="n">
         <v>5</v>
@@ -28400,10 +27654,8 @@
           <t>4329478524</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:52:31</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44283.74480324074</v>
       </c>
       <c r="I383" t="n">
         <v>6</v>
@@ -28475,10 +27727,8 @@
           <t>4329478346</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:52:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44283.74471064815</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28550,10 +27800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:50:36</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44283.74347222222</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28617,10 +27865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:48:18</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44283.741875</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28692,10 +27938,8 @@
           <t>4329439331</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:45:22</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44283.73983796296</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28771,10 +28015,8 @@
           <t>4329433824</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:42:34</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44283.73789351852</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28842,10 +28084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:40:57</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44283.73677083333</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28921,10 +28161,8 @@
           <t>4329427056</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:40:26</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44283.73641203704</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28996,10 +28234,8 @@
           <t>4329425922</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:39:43</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44283.73591435186</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -29067,10 +28303,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:39:39</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44283.73586805556</v>
       </c>
       <c r="I392" t="n">
         <v>5</v>
@@ -29146,10 +28380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:36:20</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44283.73356481481</v>
       </c>
       <c r="I393" t="n">
         <v>7</v>
@@ -29225,10 +28457,8 @@
           <t>4329401671</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:34:08</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44283.73203703704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29304,10 +28534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:32:22</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44283.73081018519</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29379,10 +28607,8 @@
           <t>4329385902</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:30:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44283.72930555556</v>
       </c>
       <c r="I396" t="n">
         <v>51</v>
@@ -29458,10 +28684,8 @@
           <t>4329380829</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:30:03</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44283.72920138889</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29533,10 +28757,8 @@
           <t>4329380829</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:29:35</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44283.72887731482</v>
       </c>
       <c r="I398" t="n">
         <v>5</v>
@@ -29596,10 +28818,8 @@
           <t>4329332366</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:27:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44283.7277662037</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29675,10 +28895,8 @@
           <t>4329328096</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:27:37</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44283.72751157408</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29754,10 +28972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:26:47</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44283.72693287037</v>
       </c>
       <c r="I401" t="n">
         <v>814</v>
@@ -29829,10 +29045,8 @@
           <t>4329370641</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:26:35</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44283.72679398148</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29908,10 +29122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:22:25</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44283.72390046297</v>
       </c>
       <c r="I403" t="n">
         <v>53</v>
@@ -29975,10 +29187,8 @@
           <t>4329332366</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:20:12</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44283.72236111111</v>
       </c>
       <c r="I404" t="n">
         <v>5</v>
@@ -30042,10 +29252,8 @@
           <t>4329331515</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:19:36</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44283.72194444444</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30117,10 +29325,8 @@
           <t>4329324729</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:18:35</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44283.72123842593</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30184,10 +29390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:18:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44283.72122685185</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30251,10 +29455,8 @@
           <t>4329328096</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:17:51</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44283.72072916666</v>
       </c>
       <c r="I408" t="n">
         <v>11</v>
@@ -30322,10 +29524,8 @@
           <t>4329327938</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:17:44</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44283.72064814815</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30389,10 +29589,8 @@
           <t>4329321400</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:16:16</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44283.71962962963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30464,10 +29662,8 @@
           <t>4329313806</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:14:48</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44283.71861111111</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30535,10 +29731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:14:14</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44283.71821759259</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30610,10 +29804,8 @@
           <t>4329311888</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:13:28</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44283.71768518518</v>
       </c>
       <c r="I413" t="n">
         <v>10</v>
@@ -30677,10 +29869,8 @@
           <t>4329310093</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:12:13</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44283.71681712963</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30752,10 +29942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:10:27</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44283.71559027778</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30827,10 +30015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:09:30</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44283.71493055556</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30902,10 +30088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:06:17</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44283.71269675926</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30973,10 +30157,8 @@
           <t>4329263626</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:04:16</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44283.71129629629</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31048,10 +30230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:04:02</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44283.71113425926</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31119,10 +30299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:03:59</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44283.71109953704</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31186,10 +30364,8 @@
           <t>4329256958</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:02:23</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44283.70998842592</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31253,10 +30429,8 @@
           <t>4329260046</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:01:48</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44283.70958333334</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31318,10 +30492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:01:37</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44283.70945601852</v>
       </c>
       <c r="I423" t="n">
         <v>381</v>
@@ -31397,10 +30569,8 @@
           <t>4328852601</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:59:21</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44283.70788194444</v>
       </c>
       <c r="I424" t="n">
         <v>11</v>
@@ -31460,10 +30630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:59:02</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44283.70766203704</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31535,10 +30703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:58:43</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44283.70744212963</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31610,10 +30776,8 @@
           <t>4329250106</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:58:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44283.70725694444</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31677,10 +30841,8 @@
           <t>4329234400</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:57:57</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44283.70690972222</v>
       </c>
       <c r="I428" t="n">
         <v>5</v>
@@ -31744,10 +30906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:56:53</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44283.70616898148</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31811,10 +30971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:56:19</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44283.70577546296</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31882,10 +31040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:46:35</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44283.6990162037</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31949,10 +31105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:45:34</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44283.69831018519</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32020,10 +31174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:43:37</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44283.69695601852</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32095,10 +31247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:43:10</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44283.69664351852</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32170,10 +31320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:43:02</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44283.69655092592</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32237,10 +31385,8 @@
           <t>4329158935</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:39:39</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44283.69420138889</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32304,10 +31450,8 @@
           <t>4329161805</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:38:19</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44283.69327546296</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32371,10 +31515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:37:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44283.69236111111</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32438,10 +31580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:34:34</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44283.6906712963</v>
       </c>
       <c r="I439" t="n">
         <v>439</v>
@@ -32505,10 +31645,8 @@
           <t>4329129465</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:32:40</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44283.68935185186</v>
       </c>
       <c r="I440" t="n">
         <v>6</v>
@@ -32572,10 +31710,8 @@
           <t>4329128201</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:44</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44283.6887037037</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32639,10 +31775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:37</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44283.68862268519</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32718,10 +31852,8 @@
           <t>4329132553</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:37</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44283.68862268519</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32785,10 +31917,8 @@
           <t>4328704070</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:10</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44283.68831018519</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32852,10 +31982,8 @@
           <t>4329127308</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:08</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44283.68828703704</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32927,10 +32055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:51</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44283.68739583333</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33006,10 +32132,8 @@
           <t>4328708791</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:35</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44283.68721064815</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33069,10 +32193,8 @@
           <t>4329114673</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:12</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44283.68694444445</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33148,10 +32270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:28:35</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44283.68651620371</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33215,10 +32335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:28:19</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44283.68633101852</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33278,10 +32396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:26:56</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44283.68537037037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33349,10 +32465,8 @@
           <t>4328708791</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:24:04</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44283.68337962963</v>
       </c>
       <c r="I452" t="n">
         <v>2</v>
@@ -33435,10 +32549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:23:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44283.68309027778</v>
       </c>
       <c r="I453" t="n">
         <v>271</v>
@@ -33514,10 +32626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:23:13</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44283.68278935185</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33589,10 +32699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:22:51</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44283.68253472223</v>
       </c>
       <c r="I455" t="n">
         <v>35</v>
@@ -33664,10 +32772,8 @@
           <t>4328909588</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:20:37</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44283.68098379629</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33743,10 +32849,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:20:16</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44283.68074074074</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33818,10 +32922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:19:18</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44283.68006944445</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33890,10 +32992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:19:03</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44283.67989583333</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33969,10 +33069,8 @@
           <t>4328748929</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:18:52</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44283.67976851852</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34048,10 +33146,8 @@
           <t>4329075281</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:18:02</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44283.67918981481</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34127,10 +33223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:16:19</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44283.67799768518</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34190,10 +33284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:16:15</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44283.67795138889</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34265,10 +33357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:15:59</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44283.67776620371</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34340,10 +33430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:15:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44283.67773148148</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34407,10 +33495,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:15:40</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44283.6775462963</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34478,10 +33564,8 @@
           <t>4329048745</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:13:13</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44283.6758449074</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34558,10 +33642,8 @@
           <t>4328785232</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:11:45</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44283.67482638889</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34625,10 +33707,8 @@
           <t>4328708791</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:11:04</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44283.67435185185</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34688,10 +33768,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:10:48</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44283.67416666666</v>
       </c>
       <c r="I470" t="n">
         <v>4</v>
@@ -34763,10 +33841,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:08:40</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44283.67268518519</v>
       </c>
       <c r="I471" t="n">
         <v>25</v>
@@ -34838,10 +33914,8 @@
           <t>4329031028</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:07:44</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44283.67203703704</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34917,10 +33991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:07:39</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44283.67197916667</v>
       </c>
       <c r="I473" t="n">
         <v>4</v>
@@ -34996,10 +34068,8 @@
           <t>4328935886</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:07:12</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44283.67166666667</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35067,10 +34137,8 @@
           <t>4329019984</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:06:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44283.67151620371</v>
       </c>
       <c r="I475" t="n">
         <v>3</v>
@@ -35142,10 +34210,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:06:52</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44283.67143518518</v>
       </c>
       <c r="I476" t="n">
         <v>2</v>
@@ -35213,10 +34279,8 @@
           <t>4328758786</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:06:36</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44283.67125</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35284,10 +34348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:06:04</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44283.67087962963</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35359,10 +34421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:05:53</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44283.67075231481</v>
       </c>
       <c r="I479" t="n">
         <v>3</v>
@@ -35438,10 +34498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:05:35</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44283.67054398148</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35505,10 +34563,8 @@
           <t>4329011943</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:02:49</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44283.66862268518</v>
       </c>
       <c r="I481" t="n">
         <v>52</v>
@@ -35576,10 +34632,8 @@
           <t>4328748929</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:02:36</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44283.66847222222</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35655,10 +34709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:02:26</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44283.66835648148</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35718,10 +34770,8 @@
           <t>4329007428</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:02:03</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44283.66809027778</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35794,10 +34844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:01:04</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44283.66740740741</v>
       </c>
       <c r="I485" t="n">
         <v>13</v>
@@ -35873,10 +34921,8 @@
           <t>4328997781</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:59:54</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44283.66659722223</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35940,10 +34986,8 @@
           <t>4328996577</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:59:02</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44283.66599537037</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36015,10 +35059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:56:16</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44283.66407407408</v>
       </c>
       <c r="I488" t="n">
         <v>769</v>
@@ -36094,10 +35136,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:55:49</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44283.66376157408</v>
       </c>
       <c r="I489" t="n">
         <v>2</v>
@@ -36165,10 +35205,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:55:31</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44283.66355324074</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36240,10 +35278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:54:52</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44283.66310185185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36319,10 +35355,8 @@
           <t>4328923953</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:54:13</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44283.66265046296</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36394,10 +35428,8 @@
           <t>4328923953</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:53:01</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44283.66181712963</v>
       </c>
       <c r="I493" t="n">
         <v>13</v>
@@ -36475,10 +35507,8 @@
           <t>4328909588</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:52:58</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44283.66178240741</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36546,10 +35576,8 @@
           <t>4328959895</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:52:15</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44283.66128472222</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36617,10 +35645,8 @@
           <t>4328966900</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:52:09</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44283.66121527777</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36692,10 +35718,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:52:06</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44283.66118055556</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36771,10 +35795,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:51:29</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44283.66075231481</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36850,10 +35872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:51:04</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44283.66046296297</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36924,10 +35944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:51:02</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44283.66043981481</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36991,10 +36009,8 @@
           <t>4328965215</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:50:56</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44283.66037037037</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37063,10 +36079,8 @@
           <t>4328724100</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:48</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44283.65958333333</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37130,10 +36144,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44283.65924768519</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37197,10 +36209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:00</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44283.65902777778</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37269,10 +36279,8 @@
           <t>4328944234</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:48:05</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44283.6583912037</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37332,10 +36340,8 @@
           <t>4328948021</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:57</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44283.65829861111</v>
       </c>
       <c r="I506" t="n">
         <v>2</v>
@@ -37411,10 +36417,8 @@
           <t>4328951033</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:53</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44283.65825231482</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37491,10 +36495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:09</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44283.65774305556</v>
       </c>
       <c r="I508" t="n">
         <v>21</v>
@@ -37563,10 +36565,8 @@
           <t>4328708791</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:08</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44283.65773148148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37642,10 +36642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:46:34</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44283.65733796296</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37722,10 +36720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:46:30</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44283.65729166667</v>
       </c>
       <c r="I511" t="n">
         <v>2</v>
@@ -37793,10 +36789,8 @@
           <t>4328938368</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:45:53</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44283.65686342592</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37868,10 +36862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:45:22</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44283.65650462963</v>
       </c>
       <c r="I513" t="n">
         <v>37</v>
@@ -37943,10 +36935,8 @@
           <t>4328936231</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:44:18</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44283.65576388889</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38022,10 +37012,8 @@
           <t>4328935886</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:44:03</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44283.65559027778</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38089,10 +37077,8 @@
           <t>4328923953</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:42:39</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44283.65461805555</v>
       </c>
       <c r="I516" t="n">
         <v>20</v>
@@ -38164,10 +37150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:41:02</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44283.65349537037</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38235,10 +37219,8 @@
           <t>4328909588</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:39:27</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44283.65239583333</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38314,10 +37296,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:37:07</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44283.65077546296</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38381,10 +37361,8 @@
           <t>4328891555</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:33:25</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44283.64820601852</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
@@ -38444,10 +37422,8 @@
           <t>4328891043</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:33:02</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44283.64793981481</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38511,10 +37487,8 @@
           <t>4328724100</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:32:33</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44283.64760416667</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38586,10 +37560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:32:21</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44283.64746527778</v>
       </c>
       <c r="I523" t="n">
         <v>18</v>
@@ -38657,10 +37629,8 @@
           <t>4328855801</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:32:14</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44283.64738425926</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38736,10 +37706,8 @@
           <t>4328855801</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:31:11</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44283.64665509259</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38811,10 +37779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:30:36</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44283.64625</v>
       </c>
       <c r="I526" t="n">
         <v>25</v>
@@ -38874,10 +37840,8 @@
           <t>4328741740</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:30:10</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44283.64594907407</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38945,10 +37909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:28:57</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44283.64510416667</v>
       </c>
       <c r="I528" t="n">
         <v>35</v>
@@ -39012,10 +37974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:28:26</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44283.64474537037</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39079,10 +38039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:28:01</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44283.64445601852</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39147,10 +38105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:26:44</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44283.64356481482</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39214,10 +38170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:26:19</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44283.64327546296</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39289,10 +38243,8 @@
           <t>4328859356</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:26:14</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44283.64321759259</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39364,10 +38316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:26:05</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44283.64311342593</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39443,10 +38393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:57</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44283.64302083333</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39510,10 +38458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:56</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44283.64300925926</v>
       </c>
       <c r="I536" t="n">
         <v>4</v>
@@ -39589,10 +38535,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:42</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44283.64284722223</v>
       </c>
       <c r="I537" t="n">
         <v>3</v>
@@ -39660,10 +38604,8 @@
           <t>4328857962</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:09</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44283.64246527778</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39731,10 +38673,8 @@
           <t>4328853515</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:04</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44283.64240740741</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39810,10 +38750,8 @@
           <t>4328852601</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:24:24</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44283.64194444445</v>
       </c>
       <c r="I540" t="n">
         <v>22</v>
@@ -39889,10 +38827,8 @@
           <t>4328837115</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:23:31</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44283.64133101852</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39964,10 +38900,8 @@
           <t>4328855801</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:23:28</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44283.64129629629</v>
       </c>
       <c r="I542" t="n">
         <v>2</v>
@@ -40043,10 +38977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:22:03</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44283.6403125</v>
       </c>
       <c r="I543" t="n">
         <v>15</v>
@@ -40118,10 +39050,8 @@
           <t>4328843683</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:49</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44283.64015046296</v>
       </c>
       <c r="I544" t="n">
         <v>58</v>
@@ -40189,10 +39119,8 @@
           <t>4328843557</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:43</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44283.64008101852</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40264,10 +39192,8 @@
           <t>4328741740</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:38</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44283.64002314815</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40345,10 +39271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:30</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44283.63993055555</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40416,10 +39340,8 @@
           <t>4328845323</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:14</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44283.63974537037</v>
       </c>
       <c r="I548" t="n">
         <v>7</v>
@@ -40495,10 +39417,8 @@
           <t>4328838430</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:09</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44283.6396875</v>
       </c>
       <c r="I549" t="n">
         <v>18</v>
@@ -40570,10 +39490,8 @@
           <t>4328741740</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:06</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44283.63965277778</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40651,10 +39569,8 @@
           <t>4328838333</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:05</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44283.63964120371</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40724,10 +39640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:02</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44283.63960648148</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40799,10 +39713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:20:40</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44283.63935185185</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40870,10 +39782,8 @@
           <t>4328837115</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:20:07</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44283.63896990741</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -40941,10 +39851,8 @@
           <t>4328837021</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:20:03</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44283.63892361111</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41013,10 +39921,8 @@
           <t>4328785232</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:19:53</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44283.63880787037</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41084,10 +39990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:19:33</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44283.63857638889</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41151,10 +40055,8 @@
           <t>4328741740</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:18:53</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44283.63811342593</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41222,10 +40124,8 @@
           <t>4328800563</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:18:08</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44283.63759259259</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41293,10 +40193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:17:50</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44283.63738425926</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41360,10 +40258,8 @@
           <t>4328822185</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:16:25</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44283.63640046296</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41427,10 +40323,8 @@
           <t>4328800563</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:54</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44283.63604166666</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41498,10 +40392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:48</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44283.63597222222</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -41565,10 +40457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:18</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44283.635625</v>
       </c>
       <c r="I564" t="n">
         <v>3108</v>
@@ -41637,10 +40527,8 @@
           <t>4328783289</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:14:54</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44283.63534722223</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41708,10 +40596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:14:10</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44283.63483796296</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41779,10 +40665,8 @@
           <t>4328812913</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:13:31</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44283.63438657407</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
@@ -41858,10 +40742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:13:08</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44283.63412037037</v>
       </c>
       <c r="I568" t="n">
         <v>16</v>
@@ -41937,10 +40819,8 @@
           <t>4328785232</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:12:36</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44283.63375</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42016,10 +40896,8 @@
           <t>4328783289</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:12:06</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44283.63340277778</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42087,10 +40965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:11:10</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44283.63275462963</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42158,10 +41034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:10:47</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44283.63248842592</v>
       </c>
       <c r="I572" t="n">
         <v>56</v>
@@ -42239,10 +41113,8 @@
           <t>4328789733</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:10:13</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44283.63209490741</v>
       </c>
       <c r="I573" t="n">
         <v>2</v>
@@ -42302,10 +41174,8 @@
           <t>4328800563</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:10:04</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44283.63199074074</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42375,10 +41245,8 @@
           <t>4328797850</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:09:39</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44283.63170138889</v>
       </c>
       <c r="I575" t="n">
         <v>7</v>
@@ -42446,10 +41314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:09:33</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44283.63163194444</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42525,10 +41391,8 @@
           <t>4328789733</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:09:27</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44283.6315625</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42588,10 +41452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:09:23</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44283.63151620371</v>
       </c>
       <c r="I578" t="n">
         <v>46</v>
@@ -42667,10 +41529,8 @@
           <t>4328719289</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:08:59</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44283.63123842593</v>
       </c>
       <c r="I579" t="n">
         <v>7</v>
@@ -42742,10 +41602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:08:37</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44283.6309837963</v>
       </c>
       <c r="I580" t="n">
         <v>13</v>
@@ -42813,10 +41671,8 @@
           <t>4328758786</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:08:22</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44283.63081018518</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42876,10 +41732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:08:02</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44283.63057870371</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42955,10 +41809,8 @@
           <t>4328790979</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:07:57</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44283.63052083334</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43030,10 +41882,8 @@
           <t>4328790679</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:07:45</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44283.63038194444</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43101,10 +41951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:07:37</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44283.63028935185</v>
       </c>
       <c r="I585" t="n">
         <v>19</v>
@@ -43180,10 +42028,8 @@
           <t>4328719289</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:07:22</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44283.63011574074</v>
       </c>
       <c r="I586" t="n">
         <v>5</v>
@@ -43243,10 +42089,8 @@
           <t>4328697486</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:07:11</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44283.62998842593</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43318,10 +42162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:59</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44283.62984953704</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43389,10 +42231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:56</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44283.62981481481</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43468,10 +42308,8 @@
           <t>4328784278</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:56</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44283.62981481481</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43539,10 +42377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:18</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44283.629375</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43614,10 +42450,8 @@
           <t>4328783289</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:11</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44283.62929398148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43689,10 +42523,8 @@
           <t>4328785232</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:06:06</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44283.62923611111</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43761,10 +42593,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:54</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44283.62909722222</v>
       </c>
       <c r="I594" t="n">
         <v>9</v>
@@ -43832,10 +42662,8 @@
           <t>4328782703</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:45</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44283.62899305556</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43911,10 +42739,8 @@
           <t>4328723653</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:42</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44283.62895833333</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43974,10 +42800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:27</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44283.62878472222</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44045,10 +42869,8 @@
           <t>4328774237</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:22</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44283.62872685185</v>
       </c>
       <c r="I598" t="n">
         <v>21</v>
@@ -44120,10 +42942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:05:08</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44283.62856481481</v>
       </c>
       <c r="I599" t="n">
         <v>1657</v>
@@ -44195,10 +43015,8 @@
           <t>4328723917</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:53</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44283.6283912037</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44266,10 +43084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:27</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44283.62809027778</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44341,10 +43157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:25</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44283.62806712963</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44420,10 +43234,8 @@
           <t>4328772982</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:25</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44283.62806712963</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44499,10 +43311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:19</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44283.62799768519</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44578,10 +43388,8 @@
           <t>4328751285</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:13</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44283.62792824074</v>
       </c>
       <c r="I605" t="n">
         <v>6</v>
@@ -44653,10 +43461,8 @@
           <t>4328758786</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:01</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44283.62778935185</v>
       </c>
       <c r="I606" t="n">
         <v>8</v>
@@ -44724,10 +43530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:03:24</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44283.62736111111</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44799,10 +43603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:03:23</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44283.62734953704</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44878,10 +43680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:03:15</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44283.62725694444</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44953,10 +43753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:03:03</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44283.62711805556</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45028,10 +43826,8 @@
           <t>4328770667</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:02:40</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44283.62685185186</v>
       </c>
       <c r="I611" t="n">
         <v>4</v>
@@ -45107,10 +43903,8 @@
           <t>4328768608</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:02:34</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44283.62678240741</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45182,10 +43976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:02:15</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44283.6265625</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45258,10 +44050,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:47</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44283.62623842592</v>
       </c>
       <c r="I614" t="n">
         <v>4</v>
@@ -45325,10 +44115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:42</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44283.62618055556</v>
       </c>
       <c r="I615" t="n">
         <v>14</v>
@@ -45392,10 +44180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:32</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44283.62606481482</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45463,10 +44249,8 @@
           <t>4328758786</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:14</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44283.62585648148</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45530,10 +44314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:13</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44283.62584490741</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45609,10 +44391,8 @@
           <t>4328761743</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:01:02</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44283.62571759259</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45688,10 +44468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:00:53</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44283.62561342592</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45751,10 +44529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:00:46</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44283.62553240741</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -45830,10 +44606,8 @@
           <t>4328765534</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:00:14</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44283.62516203704</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45897,10 +44671,8 @@
           <t>4328757145</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:59:57</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44283.62496527778</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45972,10 +44744,8 @@
           <t>4328756704</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:59:38</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44283.62474537037</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -46047,10 +44817,8 @@
           <t>4328748929</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:58:55</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44283.62424768518</v>
       </c>
       <c r="I625" t="n">
         <v>4</v>
@@ -46118,10 +44886,8 @@
           <t>4328753447</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:58:41</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44283.62408564815</v>
       </c>
       <c r="I626" t="n">
         <v>2</v>
@@ -46189,10 +44955,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:57:29</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44283.62325231481</v>
       </c>
       <c r="I627" t="n">
         <v>3</v>
@@ -46268,10 +45032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:57:28</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44283.62324074074</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46339,10 +45101,8 @@
           <t>4328751646</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:57:18</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44283.623125</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46418,10 +45178,8 @@
           <t>4328751285</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:57:01</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44283.62292824074</v>
       </c>
       <c r="I630" t="n">
         <v>2</v>
@@ -46497,10 +45255,8 @@
           <t>4328746171</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:56:48</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44283.62277777777</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46568,10 +45324,8 @@
           <t>4328719289</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:56:19</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44283.62244212963</v>
       </c>
       <c r="I632" t="n">
         <v>21</v>
@@ -46647,10 +45401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:56:17</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44283.62241898148</v>
       </c>
       <c r="I633" t="n">
         <v>84</v>
@@ -46718,10 +45470,8 @@
           <t>4328742026</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:59</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44283.62221064815</v>
       </c>
       <c r="I634" t="n">
         <v>5</v>
@@ -46789,10 +45539,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:55</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44283.62216435185</v>
       </c>
       <c r="I635" t="n">
         <v>2</v>
@@ -46868,10 +45616,8 @@
           <t>4328739822</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:54</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44283.62215277777</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46947,10 +45693,8 @@
           <t>4328741740</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:45</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44283.62204861111</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47028,10 +45772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:11</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44283.62165509259</v>
       </c>
       <c r="I638" t="n">
         <v>289</v>
@@ -47107,10 +45849,8 @@
           <t>4328734063</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:10</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44283.62164351852</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47178,10 +45918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:56</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44283.62148148148</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47258,10 +45996,8 @@
           <t>4328740681</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:56</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44283.62148148148</v>
       </c>
       <c r="I641" t="n">
         <v>21</v>
@@ -47337,10 +46073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:24</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44283.62111111111</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
@@ -47430,10 +46164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:12</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44283.62097222222</v>
       </c>
       <c r="I643" t="n">
         <v>160</v>
@@ -47501,10 +46233,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:53</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44283.62075231481</v>
       </c>
       <c r="I644" t="n">
         <v>2</v>
@@ -47572,10 +46302,8 @@
           <t>4328732195</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:43</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44283.62063657407</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47643,10 +46371,8 @@
           <t>4328736814</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:35</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44283.62054398148</v>
       </c>
       <c r="I646" t="n">
         <v>6</v>
@@ -47715,10 +46441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:34</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44283.62053240741</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47786,10 +46510,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:17</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44283.62033564815</v>
       </c>
       <c r="I648" t="n">
         <v>2</v>
@@ -47865,10 +46587,8 @@
           <t>4328736045</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:01</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44283.62015046296</v>
       </c>
       <c r="I649" t="n">
         <v>8</v>
@@ -47944,10 +46664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:51</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44283.62003472223</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -48011,10 +46729,8 @@
           <t>4328735601</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:40</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44283.61990740741</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48078,10 +46794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:28</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44283.61976851852</v>
       </c>
       <c r="I652" t="n">
         <v>3</v>
@@ -48158,10 +46872,8 @@
           <t>4328730439</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:20</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44283.61967592593</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -48237,10 +46949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:18</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44283.61965277778</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48308,10 +47018,8 @@
           <t>4328730220</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:11</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44283.61957175926</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48383,10 +47091,8 @@
           <t>4328723653</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:59</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44283.61943287037</v>
       </c>
       <c r="I656" t="n">
         <v>5</v>
@@ -48450,10 +47156,8 @@
           <t>4328724100</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:31</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44283.61910879629</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48525,10 +47229,8 @@
           <t>4328719289</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:28</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44283.61907407407</v>
       </c>
       <c r="I658" t="n">
         <v>54</v>
@@ -48604,10 +47306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:23</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44283.6190162037</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48679,10 +47379,8 @@
           <t>4328723653</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:10</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44283.61886574074</v>
       </c>
       <c r="I660" t="n">
         <v>60</v>
@@ -48758,10 +47456,8 @@
           <t>4328723417</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:59</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44283.61873842592</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48837,10 +47533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:30</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44283.61840277778</v>
       </c>
       <c r="I662" t="n">
         <v>5</v>
@@ -48916,10 +47610,8 @@
           <t>4328697486</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:21</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44283.61829861111</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48991,10 +47683,8 @@
           <t>4328722149</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:00</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44283.61805555555</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -49062,10 +47752,8 @@
           <t>4328713466</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:25</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44283.61765046296</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49141,10 +47829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:09</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44283.61746527778</v>
       </c>
       <c r="I666" t="n">
         <v>3</v>
@@ -49208,10 +47894,8 @@
           <t>4328704070</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:09</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44283.61746527778</v>
       </c>
       <c r="I667" t="n">
         <v>21</v>
@@ -49287,10 +47971,8 @@
           <t>4328713086</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:09</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44283.61746527778</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49350,10 +48032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:07</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44283.61744212963</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49425,10 +48105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:03</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44283.61739583333</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49496,10 +48174,8 @@
           <t>4328712730</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:53</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44283.61728009259</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49575,10 +48251,8 @@
           <t>4328720495</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:45</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44283.6171875</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49656,10 +48330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:39</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44283.61711805555</v>
       </c>
       <c r="I673" t="n">
         <v>508</v>
@@ -49737,10 +48409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:33</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44283.61704861111</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49816,10 +48486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:29</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44283.61700231482</v>
       </c>
       <c r="I675" t="n">
         <v>5</v>
@@ -49895,10 +48563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:48:29</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44283.61700231482</v>
       </c>
       <c r="I676" t="n">
         <v>1</v>
@@ -49975,10 +48641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:48</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44283.61652777778</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -50046,10 +48710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:47</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44283.61651620371</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -50113,10 +48775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:46</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44283.61650462963</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50188,10 +48848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:29</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44283.61630787037</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50255,10 +48913,8 @@
           <t>4328704080</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:28</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44283.6162962963</v>
       </c>
       <c r="I681" t="n">
         <v>29</v>
@@ -50318,10 +48974,8 @@
           <t>4328704070</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:27</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44283.61628472222</v>
       </c>
       <c r="I682" t="n">
         <v>65</v>
@@ -50385,10 +49039,8 @@
           <t>4328708791</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:27</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44283.61628472222</v>
       </c>
       <c r="I683" t="n">
         <v>1</v>
@@ -50448,10 +49100,8 @@
           <t>4328708808</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:27</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44283.61628472222</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -50527,10 +49177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:10</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44283.61608796296</v>
       </c>
       <c r="I685" t="n">
         <v>262</v>
@@ -50606,10 +49254,8 @@
           <t>4328703340</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:55</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44283.61591435185</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50681,10 +49327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:54</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44283.61590277778</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
@@ -50756,10 +49400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:16</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44283.61546296296</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50835,10 +49477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:13</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44283.61542824074</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50902,10 +49542,8 @@
           <t>4328707135</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:12</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44283.61541666667</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -50981,10 +49619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:54</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44283.61520833334</v>
       </c>
       <c r="I691" t="n">
         <v>29</v>
@@ -51052,10 +49688,8 @@
           <t>4328706674</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:50</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44283.61516203704</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -51123,10 +49757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:09</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44283.6146875</v>
       </c>
       <c r="I693" t="n">
         <v>5</v>
@@ -51194,10 +49826,8 @@
           <t>4328697733</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:05</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44283.61464120371</v>
       </c>
       <c r="I694" t="n">
         <v>15</v>
@@ -51265,10 +49895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:00</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44283.61458333334</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -51332,10 +49960,8 @@
           <t>4328697486</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:53</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44283.61450231481</v>
       </c>
       <c r="I696" t="n">
         <v>12</v>
@@ -51404,10 +50030,8 @@
           <t>4328697416</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:50</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44283.61446759259</v>
       </c>
       <c r="I697" t="n">
         <v>58</v>
@@ -51475,10 +50099,8 @@
           <t>4328705249</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:44</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44283.61439814815</v>
       </c>
       <c r="I698" t="n">
         <v>3</v>
@@ -51550,10 +50172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:37</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44283.61431712963</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51629,10 +50249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:01</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44283.61390046297</v>
       </c>
       <c r="I700" t="n">
         <v>820</v>
@@ -51692,10 +50310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:49</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44283.61376157407</v>
       </c>
       <c r="I701" t="n">
         <v>28</v>
@@ -51759,10 +50375,8 @@
           <t>4328693078</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:41</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44283.61366898148</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51830,10 +50444,8 @@
           <t>4328688966</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:32</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44283.61356481481</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51897,10 +50509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:30</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44283.61354166667</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51972,10 +50582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:27</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44283.61350694444</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -52043,10 +50651,8 @@
           <t>4328695202</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:10</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44283.61331018519</v>
       </c>
       <c r="I706" t="n">
         <v>7</v>
@@ -52114,10 +50720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:09</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44283.61329861111</v>
       </c>
       <c r="I707" t="n">
         <v>1</v>
@@ -52177,10 +50781,8 @@
           <t>4328695130</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:43:08</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44283.61328703703</v>
       </c>
       <c r="I708" t="n">
         <v>12</v>
@@ -52252,10 +50854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:25</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44283.61278935185</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
@@ -52331,10 +50931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:20</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44283.61273148148</v>
       </c>
       <c r="I710" t="n">
         <v>123</v>
@@ -52394,10 +50992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:17</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44283.61269675926</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -52469,10 +51065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:17</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44283.61269675926</v>
       </c>
       <c r="I712" t="n">
         <v>214</v>
@@ -52548,10 +51142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:16</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44283.61268518519</v>
       </c>
       <c r="I713" t="n">
         <v>57</v>
@@ -52624,10 +51216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:06</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44283.61256944444</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -52691,10 +51281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:03</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44283.61253472222</v>
       </c>
       <c r="I715" t="n">
         <v>3</v>
@@ -52766,10 +51354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:03</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44283.61253472222</v>
       </c>
       <c r="I716" t="n">
         <v>33</v>
@@ -52841,10 +51427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:01</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44283.61251157407</v>
       </c>
       <c r="I717" t="n">
         <v>79</v>
@@ -52920,10 +51504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:01</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44283.61251157407</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52991,10 +51573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:40</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44283.61226851852</v>
       </c>
       <c r="I719" t="n">
         <v>2</v>
@@ -53062,10 +51642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:33</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44283.6121875</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -53125,10 +51703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:31</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44283.61216435185</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -53196,10 +51772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:16</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44283.61199074074</v>
       </c>
       <c r="I722" t="n">
         <v>4</v>
@@ -53271,10 +51845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:14</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44283.61196759259</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -53342,10 +51914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:13</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44283.61195601852</v>
       </c>
       <c r="I724" t="n">
         <v>8</v>
@@ -53417,10 +51987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:11</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44283.61193287037</v>
       </c>
       <c r="I725" t="n">
         <v>214</v>
@@ -53488,10 +52056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:11</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44283.61193287037</v>
       </c>
       <c r="I726" t="n">
         <v>3</v>
@@ -53559,10 +52125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:52</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44283.61171296296</v>
       </c>
       <c r="I727" t="n">
         <v>162</v>
@@ -53639,10 +52203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:43</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44283.61160879629</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -53718,10 +52280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:34</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44283.61150462963</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53785,10 +52345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:33</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44283.61149305556</v>
       </c>
       <c r="I730" t="n">
         <v>1</v>
@@ -53860,10 +52418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:25</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44283.61140046296</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -53927,10 +52483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:25</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44283.61140046296</v>
       </c>
       <c r="I732" t="n">
         <v>26</v>
@@ -54002,10 +52556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:18</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44283.61131944445</v>
       </c>
       <c r="I733" t="n">
         <v>1540</v>
@@ -54081,10 +52633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:06</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44283.61118055556</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -54160,10 +52710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:01</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44283.61112268519</v>
       </c>
       <c r="I735" t="n">
         <v>23</v>
@@ -54240,10 +52788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:00</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44283.61111111111</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -54307,10 +52853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:56</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44283.61106481482</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -54386,10 +52930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:55</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44283.61105324074</v>
       </c>
       <c r="I738" t="n">
         <v>2</v>
@@ -54457,10 +52999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:53</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44283.61103009259</v>
       </c>
       <c r="I739" t="n">
         <v>1</v>
@@ -54532,10 +53072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:47</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44283.61096064815</v>
       </c>
       <c r="I740" t="n">
         <v>21</v>
@@ -54604,10 +53142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:45</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44283.6109375</v>
       </c>
       <c r="I741" t="n">
         <v>9</v>
@@ -54677,10 +53213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:43</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44283.61091435186</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -54757,10 +53291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:38</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44283.61085648148</v>
       </c>
       <c r="I743" t="n">
         <v>1</v>
@@ -54828,10 +53360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:35</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44283.61082175926</v>
       </c>
       <c r="I744" t="n">
         <v>1</v>
@@ -54907,10 +53437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:30</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44283.61076388889</v>
       </c>
       <c r="I745" t="n">
         <v>2</v>
@@ -54986,10 +53514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:29</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44283.61075231482</v>
       </c>
       <c r="I746" t="n">
         <v>2</v>
@@ -55065,10 +53591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:19</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44283.61063657407</v>
       </c>
       <c r="I747" t="n">
         <v>29</v>
@@ -55132,10 +53656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:13</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44283.61056712963</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
@@ -55195,10 +53717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:09</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44283.61052083333</v>
       </c>
       <c r="I749" t="n">
         <v>54</v>
@@ -55270,10 +53790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:03</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44283.61045138889</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -55337,10 +53855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:00</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44283.61041666667</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
@@ -55408,10 +53924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:39:00</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44283.61041666667</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
@@ -55488,10 +54002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:54</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44283.61034722222</v>
       </c>
       <c r="I753" t="n">
         <v>1</v>
@@ -55567,10 +54079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:53</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44283.61033564815</v>
       </c>
       <c r="I754" t="n">
         <v>1</v>
@@ -55646,10 +54156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:53</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44283.61033564815</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
@@ -55713,10 +54221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:50</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44283.61030092592</v>
       </c>
       <c r="I756" t="n">
         <v>84</v>
@@ -55788,10 +54294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:49</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44283.61028935185</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
@@ -55863,10 +54367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:38</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44283.61016203704</v>
       </c>
       <c r="I758" t="n">
         <v>9</v>
@@ -55938,10 +54440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:35</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44283.61012731482</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
@@ -56017,10 +54517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:34</t>
-        </is>
+      <c r="H760" s="1" t="n">
+        <v>44283.61011574074</v>
       </c>
       <c r="I760" t="n">
         <v>4</v>
@@ -56088,10 +54586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:29</t>
-        </is>
+      <c r="H761" s="1" t="n">
+        <v>44283.61005787037</v>
       </c>
       <c r="I761" t="n">
         <v>4</v>
@@ -56159,10 +54655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:24</t>
-        </is>
+      <c r="H762" s="1" t="n">
+        <v>44283.61</v>
       </c>
       <c r="I762" t="n">
         <v>6</v>
@@ -56226,10 +54720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:23</t>
-        </is>
+      <c r="H763" s="1" t="n">
+        <v>44283.60998842592</v>
       </c>
       <c r="I763" t="n">
         <v>4</v>
@@ -56297,10 +54789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:38:13</t>
-        </is>
+      <c r="H764" s="1" t="n">
+        <v>44283.60987268519</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
